--- a/biology/Biologie cellulaire et moléculaire/Sémaphorine/Sémaphorine.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Sémaphorine/Sémaphorine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>S%C3%A9maphorine</t>
+          <t>Sémaphorine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les sémaphorines constituent une famille de protéines dont le rôle est de guider la croissance des axones.
 Les récepteurs sont essentiellement les plexines (en).
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>S%C3%A9maphorine</t>
+          <t>Sémaphorine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -520,7 +534,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>S%C3%A9maphorine</t>
+          <t>Sémaphorine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -538,9 +552,11 @@
           <t>Classes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Elles sont regroupées en huit classes, basées sur leur structure et leur arbre phylogénétique[1]. Les sept premières classes sont nommés numériquement.  La huitième groupe comporte le suffixe « V », où V est pour « virus ».  Les groupes 1 et 2 sont présents uniquement chez les invertébrés. Les groupes 3, 4, 6 et 7 sont présents uniquement chez les vertébrés [2]. Le groupe V est uniquement viral. Le groupe 5 existe chez les vertébrés et les invertébrés. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Elles sont regroupées en huit classes, basées sur leur structure et leur arbre phylogénétique. Les sept premières classes sont nommés numériquement.  La huitième groupe comporte le suffixe « V », où V est pour « virus ».  Les groupes 1 et 2 sont présents uniquement chez les invertébrés. Les groupes 3, 4, 6 et 7 sont présents uniquement chez les vertébrés . Le groupe V est uniquement viral. Le groupe 5 existe chez les vertébrés et les invertébrés. 
 Chez l'être humain, les différentes protéines de type sémaphorine sont : 
 SEMA3A, SEMA3B, SEMA3C, SEMA3D, SEMA3E, SEMA3F, SEMA3G
 SEMA4A, SEMA4B, SEMA4C ("SEMAF"), SEMA4D, SEMA4F, SEMA4G
